--- a/biology/Médecine/Alexander_Skene_(gynécologue)/Alexander_Skene_(gynécologue).xlsx
+++ b/biology/Médecine/Alexander_Skene_(gynécologue)/Alexander_Skene_(gynécologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexander_Skene_(gyn%C3%A9cologue)</t>
+          <t>Alexander_Skene_(gynécologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Johnston Chalmers Skene (né le 17 juin 1837 à Fyvie et mort le 4 juillet 1900 à Catskill) est un sculpteur et gynécologue écossais connu pour avoir décrit les glandes désormais connues sous le nom de glandes de Skene. Ces expérimentations et tortures sont faites sur de nombreuses esclaves noires, dont la tristement célèbre Anarcha.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexander_Skene_(gyn%C3%A9cologue)</t>
+          <t>Alexander_Skene_(gynécologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’âge de dix-neuf ans, Skene quitte l’Écosse pour l’Amérique du Nord. Après avoir étudié la médecine au King 's College au Canada, puis à l’université du Michigan et enfin au Long Island College Hospital (en) de Brooklyn, il a obtenu son diplôme en 1863. De juillet 1863 à juin 1864, il a été assistant-chirurgien dans l’Armée américaine, après quoi il est entré dans un cabinet privé à Brooklyn avant de devenir professeur de maladies de la femme au Long Island College Hospital. En 1884, il est professeur de gynécologie à la Post-graduate Medical School of New York et préside la Société gynécologique américaine.
 Skene a écrit plusieurs manuels et plus d’une centaine d’articles de médecine. Il a amélioré les techniques chirurgicales et fourni de nombreux instruments chirurgicaux. Il a réussi la première opération de la gastro-elytrotomie jamais enregistrée, ainsi que celle de la craniectomie à l’aide du spéculum de Sims. Il est principalement connu pour sa description des glandes de Skene situées au ras de l’urètre féminin, ainsi que leur infection.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexander_Skene_(gyn%C3%A9cologue)</t>
+          <t>Alexander_Skene_(gynécologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Report on the physical character and resources of Gippsland, Victoria, R Brough Smyth, Melbourne, J. Ferres, 1874.
 The relation of medical societies to progress in science. Inaugural address of the president of the Medical Society of the County of Kings, New York, June 16, 1874, Brooklyn, Rome Brothers, 1874.
